--- a/individual_results/avey/465.xlsx
+++ b/individual_results/avey/465.xlsx
@@ -555,7 +555,7 @@
         <v>0.2</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0.6666666666666666</v>
@@ -564,7 +564,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J2" t="n">
         <v>0.5</v>
@@ -585,7 +585,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>0.3333333333333333</v>
@@ -597,25 +597,25 @@
         <v>0.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R2" t="n">
         <v>0.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="T2" t="n">
         <v>0.5</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -628,7 +628,7 @@
         <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0.5</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J3" t="n">
         <v>0.5</v>
@@ -658,7 +658,7 @@
         <v>0.5</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N3" t="n">
         <v>0.5</v>
@@ -670,25 +670,25 @@
         <v>0.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T3" t="n">
         <v>0.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V3" t="n">
         <v>0.5</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -700,7 +700,9 @@
       <c r="B4" t="n">
         <v>0.2857142857142858</v>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="D4" t="n">
         <v>0.8</v>
       </c>
@@ -708,13 +710,15 @@
         <v>0.8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>0.5</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
       <c r="J4" t="n">
         <v>0.5</v>
       </c>
@@ -724,7 +728,9 @@
       <c r="L4" t="n">
         <v>0.4</v>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="N4" t="n">
         <v>0.4</v>
       </c>
@@ -734,19 +740,27 @@
       <c r="P4" t="n">
         <v>0.2857142857142858</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>0.2857142857142858</v>
+      </c>
       <c r="R4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
       <c r="T4" t="n">
         <v>0.5</v>
       </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="V4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -757,7 +771,9 @@
       <c r="B5" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
       <c r="D5" t="n">
         <v>0.9090909090909091</v>
       </c>
@@ -765,13 +781,15 @@
         <v>0.9090909090909091</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>0.5</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>0.4166666666666667</v>
+      </c>
       <c r="J5" t="n">
         <v>0.5</v>
       </c>
@@ -781,7 +799,9 @@
       <c r="L5" t="n">
         <v>0.4545454545454545</v>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
       <c r="N5" t="n">
         <v>0.4545454545454545</v>
       </c>
@@ -791,19 +811,27 @@
       <c r="P5" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>0.3846153846153846</v>
+      </c>
       <c r="R5" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>0.4166666666666667</v>
+      </c>
       <c r="T5" t="n">
         <v>0.5</v>
       </c>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>0.5</v>
+      </c>
       <c r="V5" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -815,7 +843,7 @@
         <v>0.52129602861432</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="D6" t="n">
         <v>0.7967075809905066</v>
@@ -824,7 +852,7 @@
         <v>0.9639404333166532</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1377057761880933</v>
+        <v>0.9639404333166532</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -833,7 +861,7 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.41311732856428</v>
       </c>
       <c r="J6" t="n">
         <v>0.8262346571285599</v>
@@ -845,7 +873,7 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="N6" t="n">
         <v>0.8262346571285599</v>
@@ -857,25 +885,25 @@
         <v>0.52129602861432</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.52129602861432</v>
       </c>
       <c r="R6" t="n">
         <v>0.6399093280453459</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.52129602861432</v>
       </c>
       <c r="T6" t="n">
         <v>0.8262346571285599</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="V6" t="n">
         <v>0.8262346571285599</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>0.8262346571285599</v>
       </c>
     </row>
     <row r="7">
@@ -888,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -897,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -918,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
@@ -942,13 +970,13 @@
         <v>1</v>
       </c>
       <c r="U7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="b">
         <v>1</v>
       </c>
       <c r="W7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -961,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -970,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -979,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -991,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
@@ -1003,25 +1031,25 @@
         <v>1</v>
       </c>
       <c r="Q8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="b">
         <v>1</v>
       </c>
       <c r="S8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="b">
         <v>1</v>
       </c>
       <c r="U8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="b">
         <v>1</v>
       </c>
       <c r="W8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1034,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1043,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1052,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -1064,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="M9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
@@ -1076,25 +1104,25 @@
         <v>1</v>
       </c>
       <c r="Q9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="b">
         <v>1</v>
       </c>
       <c r="S9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="b">
         <v>1</v>
       </c>
       <c r="U9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="b">
         <v>1</v>
       </c>
       <c r="W9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1106,19 +1134,25 @@
       <c r="B10" t="n">
         <v>2</v>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
@@ -1128,7 +1162,9 @@
       <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
       <c r="N10" t="n">
         <v>1</v>
       </c>
@@ -1138,19 +1174,27 @@
       <c r="P10" t="n">
         <v>2</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
       <c r="R10" t="n">
         <v>2</v>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
       <c r="T10" t="n">
         <v>1</v>
       </c>
-      <c r="U10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="n">
         <v>1</v>
       </c>
-      <c r="W10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">

--- a/individual_results/avey/465.xlsx
+++ b/individual_results/avey/465.xlsx
@@ -579,7 +579,7 @@
         <v>0.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0.3333333333333333</v>
@@ -594,13 +594,13 @@
         <v>0.5</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0.2</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S2" t="n">
         <v>0.25</v>
@@ -652,7 +652,7 @@
         <v>0.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0.5</v>
@@ -667,13 +667,13 @@
         <v>0.5</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S3" t="n">
         <v>0.5</v>
@@ -722,9 +722,7 @@
       <c r="J4" t="n">
         <v>0.5</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>0.4</v>
       </c>
@@ -737,14 +735,12 @@
       <c r="O4" t="n">
         <v>0.5</v>
       </c>
-      <c r="P4" t="n">
-        <v>0.2857142857142858</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
         <v>0.2857142857142858</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S4" t="n">
         <v>0.3333333333333333</v>
@@ -793,9 +789,7 @@
       <c r="J5" t="n">
         <v>0.5</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>0.4545454545454545</v>
       </c>
@@ -808,14 +802,12 @@
       <c r="O5" t="n">
         <v>0.5</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.3846153846153846</v>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
         <v>0.3846153846153846</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="S5" t="n">
         <v>0.4166666666666667</v>
@@ -867,7 +859,7 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="K6" t="n">
-        <v>0.52129602861432</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0.8262346571285599</v>
@@ -882,13 +874,13 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="P6" t="n">
-        <v>0.52129602861432</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0.52129602861432</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6399093280453459</v>
+        <v>0.52129602861432</v>
       </c>
       <c r="S6" t="n">
         <v>0.52129602861432</v>
@@ -1013,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -1028,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="b">
         <v>1</v>
@@ -1086,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -1101,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="b">
         <v>1</v>
@@ -1156,9 +1148,7 @@
       <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -1171,9 +1161,7 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>2</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
         <v>2</v>
       </c>
